--- a/DB_Design.xlsx
+++ b/DB_Design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="102">
   <si>
     <t>PK</t>
   </si>
@@ -441,6 +441,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,13 +457,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,21 +771,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="J2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -1038,11 +1038,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -1068,11 +1068,11 @@
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="1" t="s">
@@ -1120,11 +1120,11 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>84</v>
@@ -1314,7 +1314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="15.75">
+    <row r="27" spans="2:12">
       <c r="F27" s="1"/>
       <c r="G27" s="2" t="s">
         <v>10</v>
@@ -1322,27 +1322,13 @@
       <c r="H27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
@@ -1354,13 +1340,11 @@
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="J29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="1" t="s">
@@ -1372,17 +1356,19 @@
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2" t="s">
-        <v>10</v>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -1402,6 +1388,15 @@
       <c r="H31" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="2:12">
       <c r="B32" s="1"/>
@@ -1420,6 +1415,15 @@
       <c r="H32" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="J32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:12">
       <c r="B33" s="1"/>
@@ -1438,11 +1442,13 @@
       <c r="H33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="2:12" ht="15.75">
       <c r="B34" s="3"/>
@@ -1459,14 +1465,12 @@
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>99</v>
+      <c r="J34" s="1"/>
+      <c r="K34" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75">
@@ -1484,14 +1488,12 @@
       <c r="H35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>100</v>
+      <c r="J35" s="1"/>
+      <c r="K35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75">
@@ -1509,14 +1511,12 @@
       <c r="H36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>96</v>
+      <c r="J36" s="1"/>
+      <c r="K36" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75">
@@ -1535,11 +1535,11 @@
         <v>4</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>4</v>
+      <c r="K37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="2:12">
@@ -1557,13 +1557,6 @@
       <c r="H38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="39" spans="2:12">
       <c r="B39" s="1"/>
@@ -1580,13 +1573,6 @@
       <c r="H39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="1"/>
@@ -1603,13 +1589,11 @@
       <c r="H40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="1"/>
@@ -1626,30 +1610,52 @@
       <c r="H41" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="K41" s="2" t="s">
-        <v>10</v>
+      <c r="J41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
-      <c r="F44" s="8" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="F44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="J44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="45" spans="2:12">
       <c r="B45" s="1" t="s">
@@ -1670,14 +1676,12 @@
       <c r="H45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -1701,10 +1705,10 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:12">
@@ -1725,13 +1729,6 @@
       </c>
       <c r="H47" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:12">
@@ -1751,13 +1748,6 @@
       <c r="H48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" s="1"/>
@@ -1774,13 +1764,11 @@
       <c r="H49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="J49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" ht="15.75">
       <c r="B50" s="3"/>
@@ -1799,12 +1787,14 @@
       <c r="H50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="K50" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:12" ht="15.75">
@@ -1822,6 +1812,13 @@
       <c r="H51" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="2:12" ht="15.75">
       <c r="B52" s="3"/>
@@ -1838,6 +1835,13 @@
       <c r="H52" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="53" spans="2:12" ht="15.75">
       <c r="B53" s="3"/>
@@ -1854,13 +1858,15 @@
       <c r="H53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J53" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="2:12">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="15.75">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -1875,14 +1881,12 @@
       <c r="H54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>1</v>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:12">
@@ -1903,11 +1907,11 @@
         <v>1</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55" s="1" t="s">
-        <v>56</v>
+      <c r="K55" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="2:12">
@@ -1926,11 +1930,11 @@
         <v>31</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1" t="s">
-        <v>57</v>
+      <c r="K56" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="2:12">
@@ -1949,14 +1953,14 @@
         <v>6</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
-        <v>58</v>
+      <c r="K57" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
       <c r="F58" s="1"/>
       <c r="G58" s="2" t="s">
         <v>5</v>
@@ -1964,12 +1968,12 @@
       <c r="H58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="1"/>
+      <c r="K58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:12">
@@ -1980,20 +1984,13 @@
       <c r="H59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2" t="s">
         <v>8</v>
@@ -2001,13 +1998,6 @@
       <c r="H60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" s="1" t="s">
@@ -2024,13 +2014,6 @@
         <v>10</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2042,13 +2025,6 @@
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="63" spans="2:12">
       <c r="B63" s="1"/>
@@ -2067,11 +2043,11 @@
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="6"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1"/>
@@ -2207,11 +2183,7 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="F64:H64"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="J2:L2"/>
@@ -2220,8 +2192,12 @@
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J49:L49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DB_Design.xlsx
+++ b/DB_Design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
   <si>
     <t>PK</t>
   </si>
@@ -118,9 +118,6 @@
     <t>FLAT_DTLS_ID</t>
   </si>
   <si>
-    <t>DEVICE_NUM</t>
-  </si>
-  <si>
     <t>FLAT_NUM</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>SOCIETY_ADDR_DTLS_ID</t>
   </si>
   <si>
-    <t>SOCIETY_AREA_DTLS_ID</t>
-  </si>
-  <si>
     <t>COMNTN_TYPE</t>
   </si>
   <si>
@@ -320,6 +314,9 @@
   </si>
   <si>
     <t>admin_login_dtls</t>
+  </si>
+  <si>
+    <t>UNIQUE_IDENTIFIER</t>
   </si>
 </sst>
 </file>
@@ -442,12 +439,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,6 +446,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +751,7 @@
   <dimension ref="B2:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,28 +768,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -801,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>1</v>
@@ -810,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>1</v>
@@ -819,7 +816,7 @@
     <row r="4" spans="2:12">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -835,7 +832,7 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>31</v>
@@ -844,21 +841,21 @@
     <row r="5" spans="2:12">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>15</v>
@@ -869,14 +866,14 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
@@ -885,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>1</v>
@@ -894,24 +891,24 @@
     <row r="7" spans="2:12">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -924,16 +921,16 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>1</v>
@@ -951,7 +948,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>1</v>
@@ -976,7 +973,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>1</v>
@@ -1038,11 +1035,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -1068,11 +1065,11 @@
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
+      <c r="J15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="1" t="s">
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>9</v>
@@ -1120,14 +1117,14 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>17</v>
@@ -1152,7 +1149,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>31</v>
@@ -1161,7 +1158,7 @@
     <row r="20" spans="2:12">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -1175,7 +1172,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>4</v>
@@ -1193,14 +1190,14 @@
         <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>15</v>
@@ -1216,7 +1213,7 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>1</v>
@@ -1324,48 +1321,48 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="J29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>1</v>
@@ -1374,7 +1371,7 @@
     <row r="31" spans="2:12">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>17</v>
@@ -1392,7 +1389,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>9</v>
@@ -1401,10 +1398,10 @@
     <row r="32" spans="2:12">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -1419,7 +1416,7 @@
         <v>25</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>1</v>
@@ -1428,7 +1425,7 @@
     <row r="33" spans="2:12">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -1453,14 +1450,14 @@
     <row r="34" spans="2:12" ht="15.75">
       <c r="B34" s="3"/>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>17</v>
@@ -1476,14 +1473,14 @@
     <row r="35" spans="2:12" ht="15.75">
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>1</v>
@@ -1499,14 +1496,14 @@
     <row r="36" spans="2:12" ht="15.75">
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>1</v>
@@ -1522,7 +1519,7 @@
     <row r="37" spans="2:12" ht="15.75">
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -1589,11 +1586,11 @@
       <c r="H40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+      <c r="J40" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="1"/>
@@ -1614,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>1</v>
@@ -1623,7 +1620,7 @@
     <row r="42" spans="2:12">
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>15</v>
@@ -1639,16 +1636,16 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="F44" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="F44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>7</v>
@@ -1662,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -1671,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>1</v>
@@ -1689,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -1716,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -1725,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>1</v>
@@ -1734,7 +1731,7 @@
     <row r="48" spans="2:12">
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
@@ -1743,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>1</v>
@@ -1752,7 +1749,7 @@
     <row r="49" spans="2:12">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>4</v>
@@ -1764,16 +1761,16 @@
       <c r="H49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="J49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" spans="2:12" ht="15.75">
       <c r="B50" s="3"/>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -1782,7 +1779,7 @@
         <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>1</v>
@@ -1791,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>1</v>
@@ -1800,21 +1797,21 @@
     <row r="51" spans="2:12" ht="15.75">
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>1</v>
@@ -1823,21 +1820,21 @@
     <row r="52" spans="2:12" ht="15.75">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>15</v>
@@ -1846,21 +1843,21 @@
     <row r="53" spans="2:12" ht="15.75">
       <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>17</v>
@@ -1876,7 +1873,7 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>31</v>
@@ -1901,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>1</v>
@@ -1924,7 +1921,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>31</v>
@@ -1947,7 +1944,7 @@
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>6</v>
@@ -1986,11 +1983,11 @@
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="F60" s="1"/>
       <c r="G60" s="2" t="s">
         <v>8</v>
@@ -2043,11 +2040,11 @@
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="F64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1"/>
@@ -2061,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>1</v>
@@ -2079,7 +2076,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>1</v>
@@ -2095,7 +2092,7 @@
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>17</v>

--- a/DB_Design.xlsx
+++ b/DB_Design.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="103">
   <si>
     <t>PK</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>UNIQUE_IDENTIFIER</t>
+  </si>
+  <si>
+    <t>OPPONENT_FLAT_DTLS_ID</t>
+  </si>
+  <si>
+    <t>OPPONENT_BUILDING_DTLS_ID</t>
   </si>
 </sst>
 </file>
@@ -431,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -448,10 +454,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,16 +766,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L72"/>
+  <dimension ref="B2:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.5703125" customWidth="1"/>
@@ -768,21 +786,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="J2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="1" t="s">
@@ -1035,11 +1053,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="F14" s="1"/>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -1065,11 +1083,11 @@
       <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="1" t="s">
@@ -1117,11 +1135,11 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>83</v>
@@ -1321,11 +1339,11 @@
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="1" t="s">
@@ -1337,27 +1355,27 @@
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1369,12 +1387,14 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
@@ -1398,10 +1418,10 @@
     <row r="32" spans="2:12">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -1425,10 +1445,10 @@
     <row r="33" spans="2:12">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>25</v>
@@ -1447,10 +1467,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="15.75">
-      <c r="B34" s="3"/>
+    <row r="34" spans="2:12">
+      <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -1473,10 +1493,10 @@
     <row r="35" spans="2:12" ht="15.75">
       <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -1496,10 +1516,10 @@
     <row r="36" spans="2:12" ht="15.75">
       <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
@@ -1519,7 +1539,7 @@
     <row r="37" spans="2:12" ht="15.75">
       <c r="B37" s="3"/>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>4</v>
@@ -1539,13 +1559,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
+    <row r="38" spans="2:12" ht="15.75">
+      <c r="B38" s="3"/>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
@@ -1558,7 +1578,7 @@
     <row r="39" spans="2:12">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -1574,10 +1594,10 @@
     <row r="40" spans="2:12">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="2" t="s">
@@ -1586,16 +1606,16 @@
       <c r="H40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="2:12">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -1618,6 +1638,13 @@
       </c>
     </row>
     <row r="42" spans="2:12">
+      <c r="B42" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
         <v>95</v>
@@ -1636,16 +1663,11 @@
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>7</v>
@@ -1655,15 +1677,11 @@
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1683,10 +1701,10 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -1713,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -1729,12 +1747,14 @@
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C48" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>25</v>
@@ -1746,13 +1766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:13">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -1761,16 +1781,16 @@
       <c r="H49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="2:12" ht="15.75">
-      <c r="B50" s="3"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
@@ -1794,13 +1814,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="15.75">
+    <row r="51" spans="2:13" ht="15.75">
       <c r="B51" s="3"/>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -1817,13 +1837,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="15.75">
+    <row r="52" spans="2:13" ht="15.75">
       <c r="B52" s="3"/>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
@@ -1840,10 +1860,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="15.75">
+    <row r="53" spans="2:13" ht="15.75">
       <c r="B53" s="3"/>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>4</v>
@@ -1863,13 +1883,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="15.75">
-      <c r="B54" s="1"/>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
+    <row r="54" spans="2:13" ht="15.75">
+      <c r="B54" s="3"/>
+      <c r="C54" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="2" t="s">
@@ -1886,10 +1906,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:13">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>6</v>
@@ -1911,13 +1931,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:13">
       <c r="B56" s="1"/>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2" t="s">
@@ -1934,10 +1954,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:13">
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -1957,7 +1977,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:13">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="2" t="s">
         <v>5</v>
@@ -1973,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:13">
       <c r="F59" s="1"/>
       <c r="G59" s="2" t="s">
         <v>7</v>
@@ -1982,12 +2009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:12">
-      <c r="B60" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
+    <row r="60" spans="2:13">
       <c r="F60" s="1"/>
       <c r="G60" s="2" t="s">
         <v>8</v>
@@ -1996,16 +2018,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:12">
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="61" spans="2:13">
+      <c r="B61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
       <c r="F61" s="1"/>
       <c r="G61" s="2" t="s">
         <v>10</v>
@@ -2014,45 +2032,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:12">
-      <c r="B62" s="1"/>
+    <row r="62" spans="2:13">
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12">
+        <v>1</v>
+      </c>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="2:13">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:13">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="7"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>0</v>
@@ -2067,7 +2088,7 @@
     <row r="66" spans="2:8">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>19</v>
@@ -2085,10 +2106,10 @@
     <row r="67" spans="2:8">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
@@ -2101,10 +2122,10 @@
     <row r="68" spans="2:8" ht="15.75">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3" t="s">
@@ -2116,11 +2137,11 @@
     </row>
     <row r="69" spans="2:8" ht="15.75">
       <c r="B69" s="1"/>
-      <c r="C69" s="2" t="s">
-        <v>5</v>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="2" t="s">
@@ -2133,7 +2154,7 @@
     <row r="70" spans="2:8">
       <c r="B70" s="1"/>
       <c r="C70" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>6</v>
@@ -2149,10 +2170,10 @@
     <row r="71" spans="2:8">
       <c r="B71" s="1"/>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="2" t="s">
@@ -2165,7 +2186,7 @@
     <row r="72" spans="2:8">
       <c r="B72" s="1"/>
       <c r="C72" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
@@ -2178,23 +2199,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="1"/>
+      <c r="C73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="F64:H64"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B44:D44"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B60:D60"/>
     <mergeCell ref="J40:L40"/>
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J49:L49"/>
+    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
